--- a/5_graph (Nodes).xlsx
+++ b/5_graph (Nodes).xlsx
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="5_graph (Nodes)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -5430,11 +5430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085409376"/>
-        <c:axId val="-2084643520"/>
+        <c:axId val="475300464"/>
+        <c:axId val="486657040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085409376"/>
+        <c:axId val="475300464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5547,12 +5547,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084643520"/>
+        <c:crossAx val="486657040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2084643520"/>
+        <c:axId val="486657040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5665,7 +5665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085409376"/>
+        <c:crossAx val="475300464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6228,11 +6228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2082154768"/>
-        <c:axId val="-2081848000"/>
+        <c:axId val="486721120"/>
+        <c:axId val="486727168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2082154768"/>
+        <c:axId val="486721120"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6347,12 +6347,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081848000"/>
+        <c:crossAx val="486727168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081848000"/>
+        <c:axId val="486727168"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6467,7 +6467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082154768"/>
+        <c:crossAx val="486721120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12514,7 +12514,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Degree">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Degree">
   <location ref="H2:I27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -13054,8 +13054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ1590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
